--- a/proyectoCodigoFuente/application/libraries/noiTELEVEN.xlsx
+++ b/proyectoCodigoFuente/application/libraries/noiTELEVEN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>CLAVE</t>
   </si>
@@ -144,6 +144,63 @@
   </si>
   <si>
     <t>DIAS DE DURACION</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>1982-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>HERF670921HCLRMR02</t>
+  </si>
+  <si>
+    <t>masf820627</t>
+  </si>
+  <si>
+    <t>calle 12</t>
+  </si>
+  <si>
+    <t>SANTA MARIA LA RIBERA</t>
+  </si>
+  <si>
+    <t>CUAUHTEMOC</t>
+  </si>
+  <si>
+    <t>ferma_3@live.com.mx</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MIXTA</t>
   </si>
 </sst>
 </file>
@@ -485,7 +542,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +683,121 @@
       <c r="AQ1" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="1">
+        <v>3271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>196.84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2">
+        <v>11111111111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>6400</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>4578894556</v>
+      </c>
+      <c r="R2">
+        <v>5656565656</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2">
+        <v>456456546</v>
+      </c>
+      <c r="AA2"/>
+      <c r="AB2">
+        <v>54654656</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2"/>
+      <c r="AE2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2"/>
+      <c r="AG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2">
+        <v>17</v>
+      </c>
+      <c r="AK2">
+        <v>22</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2"/>
+      <c r="AN2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
